--- a/medicine/Sexualité et sexologie/Turn_Me_On!/Turn_Me_On!.xlsx
+++ b/medicine/Sexualité et sexologie/Turn_Me_On!/Turn_Me_On!.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Turn Me On! (Få meg på, for faen) est un film norvégien de comédie écrit et réalisé par Jannicke Systad Jacobsen et sorti en 2011.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alma a 15 ans et vit avec sa mère dans un petit village de Norvège perdu en pleine région des fjords. Elle boit des bières en cachette avec ses copines, fantasme sur le guitariste de la chorale du lycée et fait appel à une hotline un peu spéciale pour satisfaire ses envies d’amour et de sexe. Très vite, néanmoins, ses pulsions lui font perdre pied avec la réalité et les catastrophes commencent !
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Få meg på, for faen
 Titre français : Turn Me On!
@@ -588,7 +604,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Helene Bergsholm : Alma
 Henriette Steenstrup : la mère d'Alma
@@ -627,7 +645,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tournage s'est déroulé du 28 juin au 16 août 2010 à Hjelmeland, Oslo, Sauda et Suldal.
 </t>
@@ -658,7 +678,9 @@
           <t>Olaug Nilssen</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Olaug Nilssen est née en 1977 et a écrit son premier roman à l’âge de 21 ans. Depuis elle a signé de nombreux livres, dont Nos bras sont si courts (paru en 2003 chez Gaïa), et s’est distinguée comme l’une des auteurs les plus influentes de la littérature norvégienne contemporaine. Få meg på, for faen, le roman dont est tiré Turn Me On!, a été publié en 2005. Outre les nombreuses récompenses que le livre a reçu, Få meg på, for faen a également été adapté au théâtre en 2007. La pièce a connu un succès retentissant.
 </t>
